--- a/public/tempSalida.xlsx
+++ b/public/tempSalida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>D.G.C.F.T</t>
   </si>
@@ -25,7 +25,7 @@
     <t>SOLICITUD Y ENTREGA DE ARTICULOS DE ALMACÉN</t>
   </si>
   <si>
-    <t>10</t>
+    <t>17</t>
   </si>
   <si>
     <t>07</t>
@@ -70,18 +70,24 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>21101</t>
-  </si>
-  <si>
-    <t>Hojas de papel bond</t>
-  </si>
-  <si>
-    <t>Caja</t>
+    <t>21601</t>
+  </si>
+  <si>
+    <t>Cloralex 1lt</t>
+  </si>
+  <si>
+    <t>Pieza</t>
   </si>
   <si>
     <t>Ninguna</t>
   </si>
   <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Silla de escritorio</t>
+  </si>
+  <si>
     <t>RESPONSABLE DEL AREA SOLICITANTE</t>
   </si>
   <si>
@@ -94,13 +100,13 @@
     <t>NOMBRE</t>
   </si>
   <si>
-    <t>Tila del Carmen Mendoza</t>
-  </si>
-  <si>
-    <t>Antonio Correa Espinosa</t>
-  </si>
-  <si>
-    <t>Abraham Espinosa Mendoza</t>
+    <t>Jesus Alberto Calderón García</t>
+  </si>
+  <si>
+    <t>Tila del Carmen Mendoza Olan</t>
+  </si>
+  <si>
+    <t>Antonio Espinosa Correa</t>
   </si>
   <si>
     <t>FIRMA</t>
@@ -785,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="15">
-        <v>300</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="I9" s="15">
         <f>F9 * H9</f>
@@ -797,19 +803,31 @@
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="15">
+        <v>100</v>
+      </c>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I22" si="0">F10 * H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1025,57 +1043,57 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="13"/>
       <c r="E26" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G26" s="13"/>
       <c r="I26" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>

--- a/public/tempSalida.xlsx
+++ b/public/tempSalida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>D.G.C.F.T</t>
   </si>
@@ -70,10 +70,10 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>21601</t>
-  </si>
-  <si>
-    <t>Cloralex 1lt</t>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>QW</t>
   </si>
   <si>
     <t>Pieza</t>
@@ -82,12 +82,6 @@
     <t>Ninguna</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Silla de escritorio</t>
-  </si>
-  <si>
     <t>RESPONSABLE DEL AREA SOLICITANTE</t>
   </si>
   <si>
@@ -103,10 +97,10 @@
     <t>Jesus Alberto Calderón García</t>
   </si>
   <si>
-    <t>Tila del Carmen Mendoza Olan</t>
-  </si>
-  <si>
-    <t>Antonio Espinosa Correa</t>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Daniel A. Benitez</t>
   </si>
   <si>
     <t>FIRMA</t>
@@ -731,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
@@ -785,13 +779,13 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="15">
-        <v>7.333333333333333</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="I9" s="15">
         <f>F9 * H9</f>
@@ -803,31 +797,19 @@
       <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15">
-        <v>100</v>
-      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="15">
         <f t="shared" ref="I10:I22" si="0">F10 * H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1043,57 +1025,57 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="13"/>
       <c r="E26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="G26" s="13"/>
       <c r="I26" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
